--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Thbs1-Itga2b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Thbs1-Itga2b.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>142.9073533333333</v>
+        <v>3.075165666666667</v>
       </c>
       <c r="H2">
-        <v>428.72206</v>
+        <v>9.225497000000001</v>
       </c>
       <c r="I2">
-        <v>0.5576664151504187</v>
+        <v>0.02641273658732285</v>
       </c>
       <c r="J2">
-        <v>0.5576664151504188</v>
+        <v>0.02641273658732285</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.104136666666667</v>
+        <v>0.3883076666666667</v>
       </c>
       <c r="N2">
-        <v>3.31241</v>
+        <v>1.164923</v>
       </c>
       <c r="O2">
-        <v>0.2772362398998524</v>
+        <v>0.1188638477168776</v>
       </c>
       <c r="P2">
-        <v>0.2772362398998525</v>
+        <v>0.1188638477168776</v>
       </c>
       <c r="Q2">
-        <v>157.7892487516222</v>
+        <v>1.194110404636778</v>
       </c>
       <c r="R2">
-        <v>1420.1032387646</v>
+        <v>10.746993641731</v>
       </c>
       <c r="S2">
-        <v>0.1546053400547322</v>
+        <v>0.003139519499501544</v>
       </c>
       <c r="T2">
-        <v>0.1546053400547322</v>
+        <v>0.003139519499501544</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>142.9073533333333</v>
+        <v>3.075165666666667</v>
       </c>
       <c r="H3">
-        <v>428.72206</v>
+        <v>9.225497000000001</v>
       </c>
       <c r="I3">
-        <v>0.5576664151504187</v>
+        <v>0.02641273658732285</v>
       </c>
       <c r="J3">
-        <v>0.5576664151504188</v>
+        <v>0.02641273658732285</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>6.692959999999999</v>
       </c>
       <c r="O3">
-        <v>0.5601755411317187</v>
+        <v>0.6829215134520935</v>
       </c>
       <c r="P3">
-        <v>0.5601755411317187</v>
+        <v>0.6829215134520935</v>
       </c>
       <c r="Q3">
-        <v>318.8243998552888</v>
+        <v>6.860653600124444</v>
       </c>
       <c r="R3">
-        <v>2869.4195986976</v>
+        <v>61.74588240112</v>
       </c>
       <c r="S3">
-        <v>0.3123910858778715</v>
+        <v>0.018037826044626</v>
       </c>
       <c r="T3">
-        <v>0.3123910858778716</v>
+        <v>0.018037826044626</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>142.9073533333333</v>
+        <v>3.075165666666667</v>
       </c>
       <c r="H4">
-        <v>428.72206</v>
+        <v>9.225497000000001</v>
       </c>
       <c r="I4">
-        <v>0.5576664151504187</v>
+        <v>0.02641273658732285</v>
       </c>
       <c r="J4">
-        <v>0.5576664151504188</v>
+        <v>0.02641273658732285</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>1.942599</v>
       </c>
       <c r="O4">
-        <v>0.1625882189684289</v>
+        <v>0.1982146388310289</v>
       </c>
       <c r="P4">
-        <v>0.1625882189684289</v>
+        <v>0.1982146388310289</v>
       </c>
       <c r="Q4">
-        <v>92.53722722599333</v>
+        <v>1.991271249633667</v>
       </c>
       <c r="R4">
-        <v>832.83504503394</v>
+        <v>17.921441246703</v>
       </c>
       <c r="S4">
-        <v>0.09066998921781504</v>
+        <v>0.005235391043195301</v>
       </c>
       <c r="T4">
-        <v>0.09066998921781505</v>
+        <v>0.005235391043195301</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>191.903427</v>
       </c>
       <c r="I5">
-        <v>0.2496211559306514</v>
+        <v>0.549422396165273</v>
       </c>
       <c r="J5">
-        <v>0.2496211559306514</v>
+        <v>0.5494223961652731</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.104136666666667</v>
+        <v>0.3883076666666667</v>
       </c>
       <c r="N5">
-        <v>3.31241</v>
+        <v>1.164923</v>
       </c>
       <c r="O5">
-        <v>0.2772362398998524</v>
+        <v>0.1188638477168776</v>
       </c>
       <c r="P5">
-        <v>0.2772362398998525</v>
+        <v>0.1188638477168776</v>
       </c>
       <c r="Q5">
-        <v>70.62920340322999</v>
+        <v>24.839190654569</v>
       </c>
       <c r="R5">
-        <v>635.66283062907</v>
+        <v>223.552715891121</v>
       </c>
       <c r="S5">
-        <v>0.06920403066966853</v>
+        <v>0.065306460030031</v>
       </c>
       <c r="T5">
-        <v>0.06920403066966856</v>
+        <v>0.06530646003003102</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>191.903427</v>
       </c>
       <c r="I6">
-        <v>0.2496211559306514</v>
+        <v>0.549422396165273</v>
       </c>
       <c r="J6">
-        <v>0.2496211559306514</v>
+        <v>0.5494223961652731</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>6.692959999999999</v>
       </c>
       <c r="O6">
-        <v>0.5601755411317187</v>
+        <v>0.6829215134520935</v>
       </c>
       <c r="P6">
-        <v>0.5601755411317187</v>
+        <v>0.6829215134520935</v>
       </c>
       <c r="Q6">
         <v>142.71132897488</v>
@@ -818,10 +818,10 @@
         <v>1284.40196077392</v>
       </c>
       <c r="S6">
-        <v>0.1398316661013778</v>
+        <v>0.3752123743136639</v>
       </c>
       <c r="T6">
-        <v>0.1398316661013778</v>
+        <v>0.375212374313664</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>191.903427</v>
       </c>
       <c r="I7">
-        <v>0.2496211559306514</v>
+        <v>0.549422396165273</v>
       </c>
       <c r="J7">
-        <v>0.2496211559306514</v>
+        <v>0.5494223961652731</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>1.942599</v>
       </c>
       <c r="O7">
-        <v>0.1625882189684289</v>
+        <v>0.1982146388310289</v>
       </c>
       <c r="P7">
-        <v>0.1625882189684289</v>
+        <v>0.1982146388310289</v>
       </c>
       <c r="Q7">
         <v>41.421267265197</v>
@@ -880,10 +880,10 @@
         <v>372.791405386773</v>
       </c>
       <c r="S7">
-        <v>0.04058545915960507</v>
+        <v>0.1089035618215781</v>
       </c>
       <c r="T7">
-        <v>0.04058545915960508</v>
+        <v>0.1089035618215781</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>148.15321</v>
       </c>
       <c r="I8">
-        <v>0.1927124289189298</v>
+        <v>0.424164867247404</v>
       </c>
       <c r="J8">
-        <v>0.1927124289189298</v>
+        <v>0.4241648672474041</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.104136666666667</v>
+        <v>0.3883076666666667</v>
       </c>
       <c r="N8">
-        <v>3.31241</v>
+        <v>1.164923</v>
       </c>
       <c r="O8">
-        <v>0.2772362398998524</v>
+        <v>0.1188638477168776</v>
       </c>
       <c r="P8">
-        <v>0.2772362398998525</v>
+        <v>0.1188638477168776</v>
       </c>
       <c r="Q8">
-        <v>54.52713048178888</v>
+        <v>19.17634242809222</v>
       </c>
       <c r="R8">
-        <v>490.7441743361</v>
+        <v>172.58708185283</v>
       </c>
       <c r="S8">
-        <v>0.05342686917545168</v>
+        <v>0.05041786818734504</v>
       </c>
       <c r="T8">
-        <v>0.0534268691754517</v>
+        <v>0.05041786818734505</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>148.15321</v>
       </c>
       <c r="I9">
-        <v>0.1927124289189298</v>
+        <v>0.424164867247404</v>
       </c>
       <c r="J9">
-        <v>0.1927124289189298</v>
+        <v>0.4241648672474041</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>6.692959999999999</v>
       </c>
       <c r="O9">
-        <v>0.5601755411317187</v>
+        <v>0.6829215134520935</v>
       </c>
       <c r="P9">
-        <v>0.5601755411317187</v>
+        <v>0.6829215134520935</v>
       </c>
       <c r="Q9">
         <v>110.1759453779555</v>
@@ -1004,10 +1004,10 @@
         <v>991.5835084015999</v>
       </c>
       <c r="S9">
-        <v>0.1079527891524694</v>
+        <v>0.2896713130938035</v>
       </c>
       <c r="T9">
-        <v>0.1079527891524694</v>
+        <v>0.2896713130938036</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>148.15321</v>
       </c>
       <c r="I10">
-        <v>0.1927124289189298</v>
+        <v>0.424164867247404</v>
       </c>
       <c r="J10">
-        <v>0.1927124289189298</v>
+        <v>0.4241648672474041</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>1.942599</v>
       </c>
       <c r="O10">
-        <v>0.1625882189684289</v>
+        <v>0.1982146388310289</v>
       </c>
       <c r="P10">
-        <v>0.1625882189684289</v>
+        <v>0.1982146388310289</v>
       </c>
       <c r="Q10">
         <v>31.97803084364333</v>
@@ -1066,10 +1066,10 @@
         <v>287.80227759279</v>
       </c>
       <c r="S10">
-        <v>0.03133277059100874</v>
+        <v>0.08407568596625553</v>
       </c>
       <c r="T10">
-        <v>0.03133277059100875</v>
+        <v>0.08407568596625555</v>
       </c>
     </row>
   </sheetData>
